--- a/OpCodeList.xlsx
+++ b/OpCodeList.xlsx
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -928,10 +928,18 @@
       <c r="B3" s="51"/>
       <c r="C3" s="52"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="E3" s="47">
+        <v>0</v>
+      </c>
+      <c r="F3" s="47">
+        <v>1</v>
+      </c>
+      <c r="G3" s="47">
+        <v>1</v>
+      </c>
+      <c r="H3" s="47">
+        <v>1</v>
+      </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
